--- a/Data_preparation/datasets/final_data/GENPACT_LTD.xlsx
+++ b/Data_preparation/datasets/final_data/GENPACT_LTD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>20.94835401735078</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>19.77249717712402</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>21.04785020659737</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>19.75440664722321</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>174270076</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>5116742308</v>
@@ -891,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>19.36546554705393</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>20.08906936645508</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>20.24283539372877</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>19.17552019141397</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>174270076</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>4666977956</v>
@@ -1019,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>21.30110907043843</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>22.41365242004395</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>22.70309397515155</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>20.87599200202511</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>174270076</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>5087878787</v>
@@ -1147,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>22.32320303014261</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>21.63577842712402</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>22.32320303014261</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>20.66795751406097</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>174270076</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>5313000721</v>
@@ -1275,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>24.50306156736417</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>25.22666549682617</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>25.79650510083437</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>24.31311445762548</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>174270076</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>5724722819</v>
@@ -1403,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>24.26788527062729</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>24.21361541748047</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>24.83772304168768</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>23.28197402488788</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>174270076</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>5650368690</v>
@@ -1531,22 +1420,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>21.71718242502667</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>20.79458618164062</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>21.78049754904591</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>20.74031632179667</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>174270076</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>4964707179</v>
@@ -1659,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>22.16039082253095</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>22.32320213317871</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>22.51314751212923</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>21.39156059180974</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>174270076</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>4886415814</v>
@@ -1787,22 +1676,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>22.43362722353422</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>22.14345932006836</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>22.53337308892703</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>21.16414178110251</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>174270076</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>4926520846</v>
@@ -1915,22 +1804,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>25.30901777470153</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>26.35409355163575</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>26.46314573589201</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>24.83646119846714</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>174270076</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>5364054666</v>
@@ -2043,22 +1932,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>26.18290791734447</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>27.73111534118652</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>27.82218493561392</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>26.18290791734447</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>174270076</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>5545974245</v>
@@ -2171,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>29.1427989848308</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>30.96764373779297</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>31.74320558580439</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>29.04243187080192</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>174270076</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>6127165713</v>
@@ -2299,22 +2188,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>29.2673206876934</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>29.16671371459961</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>29.91668852810683</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>28.50819962713508</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>174270076</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>6189400888</v>
@@ -2427,22 +2316,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>26.43185200831845</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>27.85291862487793</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>28.32049582257778</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>26.31266648672007</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>174270076</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>5507931118</v>
@@ -2555,22 +2444,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>28.19744042515341</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>25.19204139709473</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>28.26177589467594</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>24.31891266012022</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>174270076</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>5814344890</v>
@@ -2674,22 +2563,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>24.57625605043068</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>27.48817825317383</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>27.58032804594137</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>24.17079801682017</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>174270076</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>5130490963</v>
@@ -2802,22 +2691,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>32.65801148820098</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>33.53566741943359</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>33.74815194607746</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>32.38085791102198</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>174270076</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>6665089626</v>
@@ -2930,22 +2819,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>35.49306092889683</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>36.74314117431641</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>37.79876512064545</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>35.14118510266787</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>174270076</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>7236090844</v>
@@ -3058,22 +2947,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>36.08675677915155</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>36.34657287597656</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>36.51359852100088</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>34.66704233617366</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>174270076</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>7381922120</v>
@@ -3186,22 +3075,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>39.47280558900383</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>41.1651611328125</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>41.90905309484543</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>38.99857202453762</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>174270076</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>8010454008</v>
@@ -3314,22 +3203,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>26.12987068002252</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>32.09601974487305</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>33.58755567754736</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>24.17222754582363</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>174270076</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>5559648464</v>
@@ -3442,22 +3331,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>34.10683361410414</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>37.2193489074707</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>37.5651831477206</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>32.26549350000506</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>174270076</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>6954279659</v>
@@ -3570,22 +3459,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>36.5919817057332</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>32.20656585693359</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>37.68833745522294</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>31.77552159540893</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>174270076</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>7430547199</v>
@@ -3698,22 +3587,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>38.82200684566785</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>35.95708465576172</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>39.84585981969669</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>35.95708465576172</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>174270076</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>7831420210</v>
@@ -3826,22 +3715,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>40.64685389713144</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>44.76239395141602</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>46.14679907323642</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>40.41141104471697</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>174270076</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>8056025569</v>
@@ -3954,22 +3843,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>42.96178698157817</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>47.02102279663086</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>47.36086252898332</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>42.8957067335288</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>174270076</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>8509781281</v>
@@ -4082,22 +3971,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>45.31251845885882</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>46.68418884277344</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>48.71805065330654</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>44.3665368927752</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>174270076</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>8919393422</v>
@@ -4210,22 +4099,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>50.58405119667986</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>47.1618537902832</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>51.21919402449004</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>44.31792290845708</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>174270076</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>9982242210</v>
@@ -4338,22 +4227,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>41.61108006623338</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>38.29246520996094</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>42.1150558710759</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>38.23541031864784</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>174270076</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>8056957549</v>
@@ -4466,22 +4355,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>40.45002480611166</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>45.8471794128418</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>46.03788855632935</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>39.60135674994331</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>174270076</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>7842908378</v>
@@ -4594,22 +4483,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>42.2608406204096</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>46.37218856811523</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>46.61122046795088</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>40.21472814139045</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>174270076</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>8031083125</v>
@@ -4722,22 +4611,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>44.76733024355548</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>45.33303451538086</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>46.47403331281059</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>43.51127766165907</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>174270076</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>8488516813</v>
@@ -4850,22 +4739,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>44.32269747854671</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>42.84174728393555</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>44.41886155105944</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>41.44734622195554</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>174270076</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>8503763636</v>
@@ -4978,22 +4867,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>36.28250799732277</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>34.83468246459961</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>38.20329149082021</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>34.79607290004441</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>174270076</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>6918558818</v>
@@ -5106,22 +4995,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>35.0218216313244</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>32.4932746887207</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>35.9906133368034</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>31.59229810697348</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>174270076</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>6563715365</v>
@@ -5234,22 +5123,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>33.66524865844922</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>34.92003631591797</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>35.89273923602079</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>32.85790345369164</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>174270076</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>6296824369</v>
@@ -5362,22 +5251,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>32.242142750465</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>30.03404426574707</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>32.25191145683284</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>29.53575638143259</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>174270076</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>5955138346</v>
@@ -5490,22 +5379,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>31.59574044072415</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>34.02995681762695</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>34.52072633904141</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>29.81915529740221</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>174270076</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>5793535856</v>
@@ -5618,22 +5507,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>38.63818800200151</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>37.61335372924805</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>39.30827166041212</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>37.26845938700718</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>174270076</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>6986342951</v>
@@ -5746,22 +5635,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>42.69494131104493</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>48.14304351806641</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>48.19248486464085</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>41.81493965659031</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>174270076</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>7574716504</v>
@@ -5874,22 +5763,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>49.76499341349398</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>49.86420440673828</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>50.31066144565122</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>44.01066875821829</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>174270076</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>8850222558</v>
@@ -6002,22 +5891,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>43.88580945541839</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>43.87584686279297</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>46.56517312967035</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>43.5272321132193</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>174270076</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>7696220320</v>
